--- a/PersonalComputer/ControlUnit.xlsx
+++ b/PersonalComputer/ControlUnit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>PCWrite</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,14 @@
   </si>
   <si>
     <t>MemOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBne</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -462,14 +470,171 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -480,9 +645,29 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -490,168 +675,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -660,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,64 +713,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1102,9 +1135,9 @@
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1"/>
@@ -1188,169 +1221,176 @@
       <c r="AG1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="25"/>
-    </row>
-    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="25">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="26">
         <v>3</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="26">
         <v>4</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="26">
         <v>5</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="26">
         <v>6</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="26">
         <v>7</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="26">
         <v>8</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="26">
         <v>9</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="26">
         <v>10</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="26">
         <v>11</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="27">
         <v>19</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="27">
         <v>20</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="27">
         <v>21</v>
       </c>
-      <c r="W2" s="22">
+      <c r="W2" s="27">
         <v>22</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="27">
         <v>24</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="Z2" s="27">
         <v>25</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AA2" s="27">
         <v>26</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="27">
         <v>27</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AC2" s="27">
         <v>28</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="27">
         <v>29</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="27">
         <v>30</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="27">
         <v>31</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="27">
         <v>32</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="27">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="AI2" s="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="9" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="28"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1384,13 +1424,16 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="26"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -1430,13 +1473,14 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="26"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="10"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="2"/>
@@ -1474,13 +1518,14 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="26"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="10"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1516,13 +1561,14 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="26"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="10"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1556,13 +1602,14 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="26"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="10"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1600,13 +1647,14 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="26"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="10"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1642,13 +1690,14 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="26"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1682,13 +1731,14 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="26"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="10"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1730,13 +1780,14 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="26"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1770,13 +1821,16 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="26"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1810,13 +1864,14 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="26"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="10"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>1</v>
@@ -1860,13 +1915,16 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="26"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1900,13 +1958,14 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="26"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="10"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -1944,13 +2003,14 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="26"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="10"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2">
         <v>1</v>
       </c>
@@ -1986,13 +2046,14 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="26"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="10"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2038,13 +2099,14 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="26"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="10"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2078,13 +2140,14 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="26"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="10"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2118,13 +2181,14 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="26"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="10"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2158,13 +2222,14 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="26"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="10"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2198,13 +2263,14 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="26"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="10"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2240,13 +2306,14 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="26"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="11"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2286,13 +2353,14 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="26"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="10"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2332,13 +2400,16 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="26"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2378,13 +2449,14 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="26"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="11"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2426,13 +2498,14 @@
         <v>1</v>
       </c>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="26"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="10"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="22">
         <v>1</v>
       </c>
       <c r="C29" s="4"/>
@@ -2474,13 +2547,14 @@
         <v>1</v>
       </c>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="26"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="11"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2518,13 +2592,14 @@
       <c r="AG30" s="4">
         <v>1</v>
       </c>
-      <c r="AH30" s="26"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="11"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2558,13 +2633,14 @@
         <v>1</v>
       </c>
       <c r="AG31" s="4"/>
-      <c r="AH31" s="26"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="11"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2600,13 +2676,14 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AH32" s="26"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="11"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2642,13 +2719,14 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="26"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="11"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2682,47 +2760,90 @@
       </c>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
-      <c r="AH34" s="26"/>
-    </row>
-    <row r="35" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="11"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="11"/>
+    </row>
+    <row r="36" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
